--- a/biology/Médecine/Indométacine/Indométacine.xlsx
+++ b/biology/Médecine/Indométacine/Indométacine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indom%C3%A9tacine</t>
+          <t>Indométacine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'indométacine (anciennement orthographiée indométhacine) est un anti-inflammatoire non stéroïdien fréquemment utilisé pour réduire la fièvre, la douleur, la raideur et l'inflammation. Elle agit par inhibition de la production de prostaglandines (des molécules qui provoquent ces symptômes)[3].
+L'indométacine (anciennement orthographiée indométhacine) est un anti-inflammatoire non stéroïdien fréquemment utilisé pour réduire la fièvre, la douleur, la raideur et l'inflammation. Elle agit par inhibition de la production de prostaglandines (des molécules qui provoquent ces symptômes).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indom%C3%A9tacine</t>
+          <t>Indométacine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les indications cliniques de l'indométacine comprennent :
 la spondylarthrite ankylosante ;
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Indom%C3%A9tacine</t>
+          <t>Indométacine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir l'article principal : AINS
 </t>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Indom%C3%A9tacine</t>
+          <t>Indométacine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">agranulocytose
 Voir l'article principal : AINS
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Indom%C3%A9tacine</t>
+          <t>Indométacine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Propriétés chimiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indométacine est un dérivé d'indole méthylé et un membre de la classe des acides arylalcanoïques, une subdivision des AINS. Sa formule chimique est C19H16ClNO4 et son nom chimique est  acide 1-(4-chlorobenzoyl)-5-méthoxy-2-méthyl-1-H-indole-3-acétique. Elle est légèrement soluble dans l'alcool et encore moins dans l'eau. Son pKa est de 4,5 et elle a un poids moléculaire de 357,79.
 </t>
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Indom%C3%A9tacine</t>
+          <t>Indométacine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,7 +674,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indométacine a été découverte en 1963. Elle est commercialisée sous le nom de Indocid par Merck. Son mécanisme d'action a été décrit pour la première fois en 1971, de même que divers autres AINS inhibiteurs des COX.
 </t>
